--- a/docs/assets/disciplinas/LOM3087.xlsx
+++ b/docs/assets/disciplinas/LOM3087.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="37">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Apresentar aos alunos, na prática, experimentos envolvendo tópicos de Pirometalurgia; Solidificação / Fundição e Eletrometalurgia.</t>
+    <t>144651 - Antonio Fernando Sartori</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -79,58 +79,46 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>144651 - Antonio Fernando Sartori</t>
+    <t>Programa resumido:</t>
+  </si>
+  <si>
+    <t>Short syllabus:</t>
+  </si>
+  <si>
+    <t>Programa:</t>
   </si>
   <si>
     <t>3577649 - Carlos Angelo Nunes</t>
   </si>
   <si>
+    <t>Syllabus:</t>
+  </si>
+  <si>
+    <t>Avaliação:</t>
+  </si>
+  <si>
+    <t>Método:</t>
+  </si>
+  <si>
     <t>5009972 - Gilberto Carvalho Coelho</t>
   </si>
   <si>
-    <t>Programa resumido:</t>
-  </si>
-  <si>
-    <t>Aulas práticas: pirometalurgia; eletrometalurgia e solidificação / fundição de metais e ligas.</t>
-  </si>
-  <si>
-    <t>Short syllabus:</t>
-  </si>
-  <si>
-    <t>Programa:</t>
-  </si>
-  <si>
-    <t>Eletrometalurgia:1) Eletrodeposição de cobre e/ou níquel;2) Anodização.PirometalurgiaOs experimentos poderão ser alterados a cada oferecimento da disciplina, mas envolverão normalmente os seguintes assuntos:1) Caracterização química e microestrutural de minérios; 2) Caracterização química e microestrutural de Ferro-Ligas;3) Secagem; calcinação de carbonatos e/ou hidróxidos; ustulação de sulfetos; aglomeração de minérios;4) Redução carbotérmica, por hidrogênio ou metalotérmica de óxidos; 5) Decomposição térmica sob vácuo de óxidos; 6) Refino de metais e/ou ligas.Solidificação / Fundição:Verificação experimental do efeito de algumas variáveis básicas de fundição tais como tipo de molde (cerâmicos, metálicos, ...), refrigeração ou pré-aquecimento do molde, temperatura de vazamento, adição de agentes inoculantes, agitação mecânica, dentre outras, nas micro e macroestruturas de metais e ligas metálicas. A turma será dividida em grupos sendo que cada um dos grupos deverá investigar com mais detalhe uma das variáveis (ou combinação de variáveis) do processamento por fundição.</t>
-  </si>
-  <si>
-    <t>Syllabus:</t>
-  </si>
-  <si>
-    <t>Avaliação:</t>
-  </si>
-  <si>
-    <t>Método:</t>
+    <t>Critério:</t>
   </si>
   <si>
     <t>Experimentos desenvolvidos em laboratórios, realização de relatórios para cada experimento e apresentação dos resultados obtidos.</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>A avaliação será feita através das notas dos relatórios escritos e das apresentações orais dos trabalhos desenvolvidos em cada módulo da disciplina.</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>Devido às características da disciplina não será oferecida recuperação</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>DENARO, A.R. Fundamentos de Eletroquímica. São Paulo: Editora Edgard Blucher, 1974. PLETCHER, D.; WALSH, F.C. Industrial Electrochemistry, 2ª Ed. Springer, 1990.KUHN, A.T. Industrial Electrochemical Processes. Elsevier Pub., 1971.ROSENQVIST, T. Principles of Extrative Metallurgy, McGraw-Hill, 1983.HABASHI, F. Extractive Metallurgy, Gordon and Breach Science Publishers, 1986.GARCIA, A. Solidificação: Fundamentos e Aplicações, Editora da Unicamp, 2001. FLEMINGS, M.C. Solidification Processing, McGraw-Hill, 1974.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -493,7 +481,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -618,47 +606,44 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="B14" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="60" customHeight="1">
+      <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
+      <c r="A15" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B15" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="60" customHeight="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="120" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="60" customHeight="1">
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="120" customHeight="1">
+    <row r="18" spans="1:3" ht="60" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
@@ -669,71 +654,50 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="120" customHeight="1">
+    <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="B19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
+        <v>31</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="120" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="60" customHeight="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="60" customHeight="1">
-      <c r="A23" s="1" t="s">
         <v>35</v>
       </c>
+    </row>
+    <row r="23" spans="1:3" ht="30" customHeight="1">
       <c r="B23" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="120" customHeight="1">
-      <c r="A24" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="30" customHeight="1">
-      <c r="B26" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/docs/assets/disciplinas/LOM3087.xlsx
+++ b/docs/assets/disciplinas/LOM3087.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="41">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,25 +70,37 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>Apresentar aos alunos, na prática, experimentos envolvendo tópicos de Pirometalurgia; Solidificação / Fundição e Eletrometalurgia.</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>144651 - Antonio Fernando Sartori</t>
   </si>
   <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
+    <t>3577649 - Carlos Angelo Nunes</t>
+  </si>
+  <si>
+    <t>5009972 - Gilberto Carvalho Coelho</t>
   </si>
   <si>
     <t>Programa resumido:</t>
   </si>
   <si>
+    <t>Aulas práticas: pirometalurgia; eletrometalurgia e solidificação / fundição de metais e ligas.</t>
+  </si>
+  <si>
     <t>Short syllabus:</t>
   </si>
   <si>
     <t>Programa:</t>
   </si>
   <si>
-    <t>3577649 - Carlos Angelo Nunes</t>
+    <t>Eletrometalurgia:1) Eletrodeposição de cobre e/ou níquel;2) Anodização.PirometalurgiaOs experimentos poderão ser alterados a cada oferecimento da disciplina, mas envolverão normalmente os seguintes assuntos:1) Caracterização química e microestrutural de minérios; 2) Caracterização química e microestrutural de Ferro-Ligas;3) Secagem; calcinação de carbonatos e/ou hidróxidos; ustulação de sulfetos; aglomeração de minérios;4) Redução carbotérmica, por hidrogênio ou metalotérmica de óxidos; 5) Decomposição térmica sob vácuo de óxidos; 6) Refino de metais e/ou ligas.Solidificação / Fundição:Verificação experimental do efeito de algumas variáveis básicas de fundição tais como tipo de molde (cerâmicos, metálicos, ...), refrigeração ou pré-aquecimento do molde, temperatura de vazamento, adição de agentes inoculantes, agitação mecânica, dentre outras, nas micro e macroestruturas de metais e ligas metálicas. A turma será dividida em grupos sendo que cada um dos grupos deverá investigar com mais detalhe uma das variáveis (ou combinação de variáveis) do processamento por fundição.</t>
   </si>
   <si>
     <t>Syllabus:</t>
@@ -100,25 +112,25 @@
     <t>Método:</t>
   </si>
   <si>
-    <t>5009972 - Gilberto Carvalho Coelho</t>
+    <t>Experimentos desenvolvidos em laboratórios, realização de relatórios para cada experimento e apresentação dos resultados obtidos.</t>
   </si>
   <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>Experimentos desenvolvidos em laboratórios, realização de relatórios para cada experimento e apresentação dos resultados obtidos.</t>
+    <t>A avaliação será feita através das notas dos relatórios escritos e das apresentações orais dos trabalhos desenvolvidos em cada módulo da disciplina.</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>A avaliação será feita através das notas dos relatórios escritos e das apresentações orais dos trabalhos desenvolvidos em cada módulo da disciplina.</t>
+    <t>Devido às características da disciplina não será oferecida recuperação</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>Devido às características da disciplina não será oferecida recuperação</t>
+    <t>DENARO, A.R. Fundamentos de Eletroquímica. São Paulo: Editora Edgard Blucher, 1974. PLETCHER, D.; WALSH, F.C. Industrial Electrochemistry, 2ª Ed. Springer, 1990.KUHN, A.T. Industrial Electrochemical Processes. Elsevier Pub., 1971.ROSENQVIST, T. Principles of Extrative Metallurgy, McGraw-Hill, 1983.HABASHI, F. Extractive Metallurgy, Gordon and Breach Science Publishers, 1986.GARCIA, A. Solidificação: Fundamentos e Aplicações, Editora da Unicamp, 2001. FLEMINGS, M.C. Solidification Processing, McGraw-Hill, 1974.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -481,13 +493,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -606,44 +618,47 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="60" customHeight="1">
-      <c r="A14" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
-      <c r="A15" s="1" t="s">
+      <c r="C14" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="C15" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="60" customHeight="1">
+      <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="120" customHeight="1">
-      <c r="A16" s="1" t="s">
+      <c r="B16" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="C16" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="60" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1">
+    <row r="18" spans="1:3" ht="120" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
@@ -654,50 +669,71 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="60" customHeight="1">
+    <row r="19" spans="1:3" ht="120" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="2" t="s">
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="60" customHeight="1">
-      <c r="A20" s="1" t="s">
+    </row>
+    <row r="21" spans="1:3" ht="60" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B21" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C21" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="120" customHeight="1">
-      <c r="A21" s="1" t="s">
+    <row r="22" spans="1:3" ht="60" customHeight="1">
+      <c r="A22" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B22" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C22" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="1" t="s">
+    <row r="23" spans="1:3" ht="60" customHeight="1">
+      <c r="A23" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="30" customHeight="1">
       <c r="B23" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="120" customHeight="1">
+      <c r="A24" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="30" customHeight="1">
+      <c r="B26" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
